--- a/exportdata/ranking.xlsx
+++ b/exportdata/ranking.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="62">
   <si>
     <t>Total</t>
   </si>
@@ -150,6 +150,15 @@
     <t>goodhuman: T1 1</t>
   </si>
   <si>
+    <t>goodsci: T1 2</t>
+  </si>
+  <si>
+    <t>goodsci: T1 1</t>
+  </si>
+  <si>
+    <t>bad human: T2 2</t>
+  </si>
+  <si>
     <t>bad human: T2 0</t>
   </si>
   <si>
@@ -165,22 +174,28 @@
     <t>good sci: T2 1</t>
   </si>
   <si>
+    <t>goodsci: T1 0</t>
+  </si>
+  <si>
     <t>good sci: T2 0</t>
   </si>
   <si>
     <t>good sci: T2 3</t>
   </si>
   <si>
+    <t>goodsci: T1 4</t>
+  </si>
+  <si>
     <t>good sci: T2 4</t>
+  </si>
+  <si>
+    <t>goodsci: T1 3</t>
   </si>
   <si>
     <t>bad human: T2 1</t>
   </si>
   <si>
     <t>bad human: T2 3</t>
-  </si>
-  <si>
-    <t>bad human: T2 2</t>
   </si>
   <si>
     <t>bad human: T2 4</t>
@@ -240,70 +255,70 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.7421875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="18.3984375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="25.921875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="32.0234375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="23.36328125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="3.265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="3.265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="3.265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.27734375" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="14.93359375" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="3.265625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="17.234375" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="46" max="46" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="47" max="47" width="3.265625" customWidth="true" bestFit="true"/>
-    <col min="49" max="49" width="20.6171875" customWidth="true" bestFit="true"/>
-    <col min="50" max="50" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="52" max="52" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="53" max="53" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="55" max="55" width="16.546875" customWidth="true" bestFit="true"/>
-    <col min="56" max="56" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="58" max="58" width="19.25" customWidth="true" bestFit="true"/>
-    <col min="59" max="59" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="61" max="61" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="62" max="62" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="64" max="64" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="65" max="65" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="67" max="67" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="68" max="68" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="70" max="70" width="11.9453125" customWidth="true" bestFit="true"/>
-    <col min="71" max="71" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="73" max="73" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="74" max="74" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="76" max="76" width="12.14453125" customWidth="true" bestFit="true"/>
-    <col min="77" max="77" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="79" max="79" width="14.921875" customWidth="true" bestFit="true"/>
-    <col min="80" max="80" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="82" max="82" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="83" max="83" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="85" max="85" width="12.0625" customWidth="true" bestFit="true"/>
-    <col min="86" max="86" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="88" max="88" width="15.875" customWidth="true" bestFit="true"/>
-    <col min="89" max="89" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="91" max="91" width="32.46484375" customWidth="true" bestFit="true"/>
-    <col min="92" max="92" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="94" max="94" width="16.7890625" customWidth="true" bestFit="true"/>
-    <col min="95" max="95" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="12.0078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.2890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.0078125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="20.78125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="29.0546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="35.00390625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="25.89453125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="12.0078125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="3.375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="12.0078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="3.375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="12.75" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="3.375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="12.0078125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="15.82421875" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="17.046875" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="12.625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="3.375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="15.171875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="19.40625" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" width="12.0078125" customWidth="true" bestFit="true"/>
+    <col min="47" max="47" width="3.375" customWidth="true" bestFit="true"/>
+    <col min="49" max="49" width="23.00390625" customWidth="true" bestFit="true"/>
+    <col min="50" max="50" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="52" max="52" width="12.0078125" customWidth="true" bestFit="true"/>
+    <col min="53" max="53" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="55" max="55" width="19.08203125" customWidth="true" bestFit="true"/>
+    <col min="56" max="56" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="58" max="58" width="21.91015625" customWidth="true" bestFit="true"/>
+    <col min="59" max="59" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="61" max="61" width="18.625" customWidth="true" bestFit="true"/>
+    <col min="62" max="62" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="64" max="64" width="12.0078125" customWidth="true" bestFit="true"/>
+    <col min="65" max="65" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="67" max="67" width="12.0078125" customWidth="true" bestFit="true"/>
+    <col min="68" max="68" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="70" max="70" width="13.13671875" customWidth="true" bestFit="true"/>
+    <col min="71" max="71" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="73" max="73" width="12.0078125" customWidth="true" bestFit="true"/>
+    <col min="74" max="74" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="76" max="76" width="13.65234375" customWidth="true" bestFit="true"/>
+    <col min="77" max="77" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="79" max="79" width="17.34765625" customWidth="true" bestFit="true"/>
+    <col min="80" max="80" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="82" max="82" width="12.0078125" customWidth="true" bestFit="true"/>
+    <col min="83" max="83" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="85" max="85" width="13.59375" customWidth="true" bestFit="true"/>
+    <col min="86" max="86" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="88" max="88" width="18.1875" customWidth="true" bestFit="true"/>
+    <col min="89" max="89" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="91" max="91" width="35.8671875" customWidth="true" bestFit="true"/>
+    <col min="92" max="92" width="2.20703125" customWidth="true" bestFit="true"/>
+    <col min="94" max="94" width="19.0078125" customWidth="true" bestFit="true"/>
+    <col min="95" max="95" width="2.20703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -993,268 +1008,268 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:IW17"/>
+  <dimension ref="A1:IW22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.85546875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.7421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="18.3984375" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="25.921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" width="32.0234375" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="23.36328125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="45" max="45" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="46" max="46" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="47" max="47" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="48" max="48" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="49" max="49" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="50" max="50" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="51" max="51" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="52" max="52" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="53" max="53" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="54" max="54" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="55" max="55" width="13.85546875" customWidth="true" bestFit="true"/>
-    <col min="56" max="56" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="57" max="57" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="58" max="58" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="59" max="59" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="60" max="60" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="61" max="61" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="62" max="62" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="63" max="63" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="64" max="64" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="65" max="65" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="66" max="66" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="67" max="67" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="68" max="68" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="69" max="69" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="70" max="70" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="71" max="71" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="72" max="72" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="73" max="73" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="74" max="74" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="75" max="75" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="76" max="76" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="77" max="77" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="78" max="78" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="79" max="79" width="13.85546875" customWidth="true" bestFit="true"/>
-    <col min="80" max="80" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="81" max="81" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="82" max="82" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="83" max="83" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="84" max="84" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="85" max="85" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="86" max="86" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="87" max="87" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="88" max="88" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="89" max="89" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="90" max="90" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="91" max="91" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="92" max="92" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="93" max="93" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="94" max="94" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="95" max="95" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="96" max="96" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="97" max="97" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="98" max="98" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="99" max="99" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="100" max="100" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="101" max="101" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="102" max="102" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="103" max="103" width="13.85546875" customWidth="true" bestFit="true"/>
-    <col min="104" max="104" width="12.7421875" customWidth="true" bestFit="true"/>
-    <col min="105" max="105" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="106" max="106" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="107" max="107" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="108" max="108" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="109" max="109" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="110" max="110" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="111" max="111" width="13.85546875" customWidth="true" bestFit="true"/>
-    <col min="112" max="112" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="113" max="113" width="17.234375" customWidth="true" bestFit="true"/>
-    <col min="114" max="114" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="115" max="115" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="116" max="116" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="117" max="117" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="118" max="118" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="119" max="119" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="120" max="120" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="121" max="121" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="122" max="122" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="123" max="123" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="124" max="124" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="125" max="125" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="126" max="126" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="127" max="127" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="128" max="128" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="129" max="129" width="20.6171875" customWidth="true" bestFit="true"/>
-    <col min="130" max="130" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="131" max="131" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="132" max="132" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="133" max="133" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="134" max="134" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="135" max="135" width="13.85546875" customWidth="true" bestFit="true"/>
-    <col min="136" max="136" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="137" max="137" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="138" max="138" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="139" max="139" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="140" max="140" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="141" max="141" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="142" max="142" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="143" max="143" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="144" max="144" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="145" max="145" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="146" max="146" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="147" max="147" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="148" max="148" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="149" max="149" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="150" max="150" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="151" max="151" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="152" max="152" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="153" max="153" width="19.25" customWidth="true" bestFit="true"/>
-    <col min="154" max="154" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="155" max="155" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="156" max="156" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="157" max="157" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="158" max="158" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="159" max="159" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="160" max="160" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="161" max="161" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="162" max="162" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="163" max="163" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="164" max="164" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="165" max="165" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="166" max="166" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="167" max="167" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="168" max="168" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="169" max="169" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="170" max="170" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="171" max="171" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="172" max="172" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="173" max="173" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="174" max="174" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="175" max="175" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="176" max="176" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="177" max="177" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="178" max="178" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="179" max="179" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="180" max="180" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="181" max="181" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="182" max="182" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="183" max="183" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="184" max="184" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="185" max="185" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="186" max="186" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="187" max="187" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="188" max="188" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="189" max="189" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="190" max="190" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="191" max="191" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="192" max="192" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="193" max="193" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="194" max="194" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="195" max="195" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="196" max="196" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="197" max="197" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="198" max="198" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="199" max="199" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="200" max="200" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="201" max="201" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="202" max="202" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="203" max="203" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="204" max="204" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="205" max="205" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="206" max="206" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="207" max="207" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="208" max="208" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="209" max="209" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="210" max="210" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="211" max="211" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="212" max="212" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="213" max="213" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="214" max="214" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="215" max="215" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="216" max="216" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="217" max="217" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="218" max="218" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="219" max="219" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="220" max="220" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="221" max="221" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="222" max="222" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="223" max="223" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="224" max="224" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="225" max="225" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="226" max="226" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="227" max="227" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="228" max="228" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="229" max="229" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="230" max="230" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="231" max="231" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="232" max="232" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="233" max="233" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="234" max="234" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="235" max="235" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="236" max="236" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="237" max="237" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="238" max="238" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="239" max="239" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="240" max="240" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="241" max="241" width="32.46484375" customWidth="true" bestFit="true"/>
-    <col min="242" max="242" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="243" max="243" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="244" max="244" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="245" max="245" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="246" max="246" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="247" max="247" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="248" max="248" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="249" max="249" width="16.7890625" customWidth="true" bestFit="true"/>
-    <col min="250" max="250" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="251" max="251" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="252" max="252" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="253" max="253" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="254" max="254" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="255" max="255" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="256" max="256" width="7.97265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.45703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2890625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.78125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="29.0546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="35.00390625" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="25.89453125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="47" max="47" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="48" max="48" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="49" max="49" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="50" max="50" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="51" max="51" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="52" max="52" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="53" max="53" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="54" max="54" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="55" max="55" width="14.45703125" customWidth="true" bestFit="true"/>
+    <col min="56" max="56" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="57" max="57" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="58" max="58" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="59" max="59" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="60" max="60" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="61" max="61" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="62" max="62" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="63" max="63" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="64" max="64" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="65" max="65" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="66" max="66" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="67" max="67" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="68" max="68" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="69" max="69" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="70" max="70" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="71" max="71" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="72" max="72" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="73" max="73" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="74" max="74" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="75" max="75" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="76" max="76" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="77" max="77" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="78" max="78" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="79" max="79" width="14.45703125" customWidth="true" bestFit="true"/>
+    <col min="80" max="80" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="81" max="81" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="82" max="82" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="83" max="83" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="84" max="84" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="85" max="85" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="86" max="86" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="87" max="87" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="88" max="88" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="89" max="89" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="90" max="90" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="91" max="91" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="92" max="92" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="93" max="93" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="94" max="94" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="95" max="95" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="96" max="96" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="97" max="97" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="98" max="98" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="99" max="99" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="100" max="100" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="101" max="101" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="102" max="102" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="103" max="103" width="14.45703125" customWidth="true" bestFit="true"/>
+    <col min="104" max="104" width="13.2890625" customWidth="true" bestFit="true"/>
+    <col min="105" max="105" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="106" max="106" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="107" max="107" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="108" max="108" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="109" max="109" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="110" max="110" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="111" max="111" width="14.45703125" customWidth="true" bestFit="true"/>
+    <col min="112" max="112" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="113" max="113" width="19.40625" customWidth="true" bestFit="true"/>
+    <col min="114" max="114" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="115" max="115" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="116" max="116" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="117" max="117" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="118" max="118" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="119" max="119" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="120" max="120" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="121" max="121" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="122" max="122" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="123" max="123" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="124" max="124" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="125" max="125" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="126" max="126" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="127" max="127" width="14.45703125" customWidth="true" bestFit="true"/>
+    <col min="128" max="128" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="129" max="129" width="23.00390625" customWidth="true" bestFit="true"/>
+    <col min="130" max="130" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="131" max="131" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="132" max="132" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="133" max="133" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="134" max="134" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="135" max="135" width="14.45703125" customWidth="true" bestFit="true"/>
+    <col min="136" max="136" width="13.94921875" customWidth="true" bestFit="true"/>
+    <col min="137" max="137" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="138" max="138" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="139" max="139" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="140" max="140" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="141" max="141" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="142" max="142" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="143" max="143" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="144" max="144" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="145" max="145" width="19.08203125" customWidth="true" bestFit="true"/>
+    <col min="146" max="146" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="147" max="147" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="148" max="148" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="149" max="149" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="150" max="150" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="151" max="151" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="152" max="152" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="153" max="153" width="21.91015625" customWidth="true" bestFit="true"/>
+    <col min="154" max="154" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="155" max="155" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="156" max="156" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="157" max="157" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="158" max="158" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="159" max="159" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="160" max="160" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="161" max="161" width="18.625" customWidth="true" bestFit="true"/>
+    <col min="162" max="162" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="163" max="163" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="164" max="164" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="165" max="165" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="166" max="166" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="167" max="167" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="168" max="168" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="169" max="169" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="170" max="170" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="171" max="171" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="172" max="172" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="173" max="173" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="174" max="174" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="175" max="175" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="176" max="176" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="177" max="177" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="178" max="178" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="179" max="179" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="180" max="180" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="181" max="181" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="182" max="182" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="183" max="183" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="184" max="184" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="185" max="185" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="186" max="186" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="187" max="187" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="188" max="188" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="189" max="189" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="190" max="190" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="191" max="191" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="192" max="192" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="193" max="193" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="194" max="194" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="195" max="195" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="196" max="196" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="197" max="197" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="198" max="198" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="199" max="199" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="200" max="200" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="201" max="201" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="202" max="202" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="203" max="203" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="204" max="204" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="205" max="205" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="206" max="206" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="207" max="207" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="208" max="208" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="209" max="209" width="17.34765625" customWidth="true" bestFit="true"/>
+    <col min="210" max="210" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="211" max="211" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="212" max="212" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="213" max="213" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="214" max="214" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="215" max="215" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="216" max="216" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="217" max="217" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="218" max="218" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="219" max="219" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="220" max="220" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="221" max="221" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="222" max="222" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="223" max="223" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="224" max="224" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="225" max="225" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="226" max="226" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="227" max="227" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="228" max="228" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="229" max="229" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="230" max="230" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="231" max="231" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="232" max="232" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="233" max="233" width="18.1875" customWidth="true" bestFit="true"/>
+    <col min="234" max="234" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="235" max="235" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="236" max="236" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="237" max="237" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="238" max="238" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="239" max="239" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="240" max="240" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="241" max="241" width="35.8671875" customWidth="true" bestFit="true"/>
+    <col min="242" max="242" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="243" max="243" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="244" max="244" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="245" max="245" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="246" max="246" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="247" max="247" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="248" max="248" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="249" max="249" width="19.0078125" customWidth="true" bestFit="true"/>
+    <col min="250" max="250" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="251" max="251" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="252" max="252" width="3.515625" customWidth="true" bestFit="true"/>
+    <col min="253" max="253" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="254" max="254" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="255" max="255" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="256" max="256" width="8.890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2439,7 +2454,7 @@
         <v>6.25</v>
       </c>
       <c r="DA3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="DB3" t="n">
         <v>1.0</v>
@@ -2463,7 +2478,7 @@
         <v>15.0</v>
       </c>
       <c r="DI3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="DJ3" t="n">
         <v>0.0</v>
@@ -2487,10 +2502,10 @@
         <v>0.0</v>
       </c>
       <c r="DQ3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DS3" t="n">
         <v>0.0</v>
@@ -2499,43 +2514,43 @@
         <v>0.0</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.0</v>
+        <v>0.5775862336158752</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="DY3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="DZ3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB3" t="n">
         <v>0.0</v>
       </c>
       <c r="EC3" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="ED3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.24482758343219757</v>
+        <v>0.4236111044883728</v>
       </c>
       <c r="EF3" t="n">
-        <v>7.5</v>
+        <v>10.0</v>
       </c>
       <c r="EG3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="EH3" t="n">
         <v>0.0</v>
@@ -2559,7 +2574,7 @@
         <v>0.0</v>
       </c>
       <c r="EO3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="EP3" t="n">
         <v>0.0</v>
@@ -2583,7 +2598,7 @@
         <v>0.0</v>
       </c>
       <c r="EW3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="EX3" t="n">
         <v>0.0</v>
@@ -2607,7 +2622,7 @@
         <v>0.0</v>
       </c>
       <c r="FE3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="FF3" t="n">
         <v>0.0</v>
@@ -2631,7 +2646,7 @@
         <v>0.0</v>
       </c>
       <c r="FM3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="FN3" t="n">
         <v>0.0</v>
@@ -2655,7 +2670,7 @@
         <v>0.0</v>
       </c>
       <c r="FU3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="FV3" t="n">
         <v>0.0</v>
@@ -2679,7 +2694,7 @@
         <v>0.0</v>
       </c>
       <c r="GC3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="GD3" t="n">
         <v>0.0</v>
@@ -2703,7 +2718,7 @@
         <v>0.0</v>
       </c>
       <c r="GK3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="GL3" t="n">
         <v>0.0</v>
@@ -2727,7 +2742,7 @@
         <v>0.0</v>
       </c>
       <c r="GS3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="GT3" t="n">
         <v>0.0</v>
@@ -2751,7 +2766,7 @@
         <v>0.0</v>
       </c>
       <c r="HA3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="HB3" t="n">
         <v>0.0</v>
@@ -2775,7 +2790,7 @@
         <v>0.0</v>
       </c>
       <c r="HI3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="HJ3" t="n">
         <v>0.0</v>
@@ -2799,7 +2814,7 @@
         <v>0.0</v>
       </c>
       <c r="HQ3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="HR3" t="n">
         <v>0.0</v>
@@ -2823,7 +2838,7 @@
         <v>0.0</v>
       </c>
       <c r="HY3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="HZ3" t="n">
         <v>0.0</v>
@@ -2847,7 +2862,7 @@
         <v>0.0</v>
       </c>
       <c r="IG3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="IH3" t="n">
         <v>0.0</v>
@@ -2871,7 +2886,7 @@
         <v>0.0</v>
       </c>
       <c r="IO3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="IP3" t="n">
         <v>0.0</v>
@@ -3185,16 +3200,16 @@
         <v>0.0</v>
       </c>
       <c r="CS4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CT4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW4" t="n">
         <v>10.0</v>
@@ -3203,7 +3218,7 @@
         <v>3.0</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.46334564685821533</v>
+        <v>0.14120370149612427</v>
       </c>
       <c r="CZ4" t="n">
         <v>3.3333332538604736</v>
@@ -3257,55 +3272,55 @@
         <v>0.0</v>
       </c>
       <c r="DQ4" t="s">
+        <v>48</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY4" t="s">
         <v>43</v>
       </c>
-      <c r="DR4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DS4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DT4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DU4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DV4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DW4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="DX4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>44</v>
-      </c>
       <c r="DZ4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB4" t="n">
         <v>0.0</v>
       </c>
       <c r="EC4" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="ED4" t="n">
         <v>2.0</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.39179104566574097</v>
+        <v>0.24482758343219757</v>
       </c>
       <c r="EF4" t="n">
-        <v>5.0</v>
+        <v>7.5</v>
       </c>
       <c r="EG4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="EH4" t="n">
         <v>0.0</v>
@@ -3329,7 +3344,7 @@
         <v>0.0</v>
       </c>
       <c r="EO4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="EP4" t="n">
         <v>0.0</v>
@@ -3353,7 +3368,7 @@
         <v>0.0</v>
       </c>
       <c r="EW4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="EX4" t="n">
         <v>0.0</v>
@@ -3377,7 +3392,7 @@
         <v>0.0</v>
       </c>
       <c r="FE4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="FF4" t="n">
         <v>0.0</v>
@@ -3401,7 +3416,7 @@
         <v>0.0</v>
       </c>
       <c r="FM4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="FN4" t="n">
         <v>0.0</v>
@@ -3425,7 +3440,7 @@
         <v>0.0</v>
       </c>
       <c r="FU4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="FV4" t="n">
         <v>0.0</v>
@@ -3449,7 +3464,7 @@
         <v>0.0</v>
       </c>
       <c r="GC4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="GD4" t="n">
         <v>0.0</v>
@@ -3473,7 +3488,7 @@
         <v>0.0</v>
       </c>
       <c r="GK4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="GL4" t="n">
         <v>0.0</v>
@@ -3497,7 +3512,7 @@
         <v>0.0</v>
       </c>
       <c r="GS4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="GT4" t="n">
         <v>0.0</v>
@@ -3521,7 +3536,7 @@
         <v>0.0</v>
       </c>
       <c r="HA4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="HB4" t="n">
         <v>0.0</v>
@@ -3545,7 +3560,7 @@
         <v>0.0</v>
       </c>
       <c r="HI4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="HJ4" t="n">
         <v>0.0</v>
@@ -3569,7 +3584,7 @@
         <v>0.0</v>
       </c>
       <c r="HQ4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="HR4" t="n">
         <v>0.0</v>
@@ -3593,7 +3608,7 @@
         <v>0.0</v>
       </c>
       <c r="HY4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="HZ4" t="n">
         <v>0.0</v>
@@ -3617,7 +3632,7 @@
         <v>0.0</v>
       </c>
       <c r="IG4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="IH4" t="n">
         <v>0.0</v>
@@ -3641,7 +3656,7 @@
         <v>0.0</v>
       </c>
       <c r="IO4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="IP4" t="n">
         <v>0.0</v>
@@ -3979,128 +3994,128 @@
         <v>2.5</v>
       </c>
       <c r="DA5" t="s">
+        <v>46</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>46</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>43</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY5" t="s">
         <v>44</v>
       </c>
-      <c r="DB5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DC5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DD5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DE5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF5" t="n">
+      <c r="DZ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="ED5" t="n">
         <v>2.0</v>
       </c>
-      <c r="DG5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="DH5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DI5" t="s">
+      <c r="EE5" t="n">
+        <v>0.39179104566574097</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="EG5" t="s">
         <v>44</v>
       </c>
-      <c r="DJ5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DK5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DL5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DM5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DN5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DO5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="DP5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DQ5" t="s">
+      <c r="EH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EO5" t="s">
         <v>44</v>
       </c>
-      <c r="DR5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DS5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DT5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DU5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DV5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DW5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="DX5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DY5" t="s">
-        <v>42</v>
-      </c>
-      <c r="DZ5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="EA5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="EB5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="EC5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="ED5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="EE5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="EF5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="EG5" t="s">
-        <v>42</v>
-      </c>
-      <c r="EH5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="EI5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="EJ5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="EK5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="EL5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="EM5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="EN5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="EO5" t="s">
-        <v>42</v>
-      </c>
       <c r="EP5" t="n">
         <v>0.0</v>
       </c>
@@ -4123,7 +4138,7 @@
         <v>0.0</v>
       </c>
       <c r="EW5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="EX5" t="n">
         <v>0.0</v>
@@ -4147,7 +4162,7 @@
         <v>0.0</v>
       </c>
       <c r="FE5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="FF5" t="n">
         <v>0.0</v>
@@ -4171,7 +4186,7 @@
         <v>0.0</v>
       </c>
       <c r="FM5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="FN5" t="n">
         <v>0.0</v>
@@ -4195,7 +4210,7 @@
         <v>0.0</v>
       </c>
       <c r="FU5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="FV5" t="n">
         <v>0.0</v>
@@ -4219,7 +4234,7 @@
         <v>0.0</v>
       </c>
       <c r="GC5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="GD5" t="n">
         <v>0.0</v>
@@ -4243,7 +4258,7 @@
         <v>0.0</v>
       </c>
       <c r="GK5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="GL5" t="n">
         <v>0.0</v>
@@ -4267,7 +4282,7 @@
         <v>0.0</v>
       </c>
       <c r="GS5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="GT5" t="n">
         <v>0.0</v>
@@ -4291,7 +4306,7 @@
         <v>0.0</v>
       </c>
       <c r="HA5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="HB5" t="n">
         <v>0.0</v>
@@ -4315,7 +4330,7 @@
         <v>0.0</v>
       </c>
       <c r="HI5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="HJ5" t="n">
         <v>0.0</v>
@@ -4339,7 +4354,7 @@
         <v>0.0</v>
       </c>
       <c r="HQ5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="HR5" t="n">
         <v>0.0</v>
@@ -4363,7 +4378,7 @@
         <v>0.0</v>
       </c>
       <c r="HY5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="HZ5" t="n">
         <v>0.0</v>
@@ -4387,7 +4402,7 @@
         <v>0.0</v>
       </c>
       <c r="IG5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="IH5" t="n">
         <v>0.0</v>
@@ -4411,7 +4426,7 @@
         <v>0.0</v>
       </c>
       <c r="IO5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="IP5" t="n">
         <v>0.0</v>
@@ -4440,13 +4455,13 @@
         <v>45</v>
       </c>
       <c r="B6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="n">
         <v>10.0</v>
@@ -4455,7 +4470,7 @@
         <v>3.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.46334564685821533</v>
+        <v>0.19354838132858276</v>
       </c>
       <c r="H6" t="n">
         <v>3.3333332538604736</v>
@@ -4725,10 +4740,10 @@
         <v>0.0</v>
       </c>
       <c r="CS6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU6" t="n">
         <v>0.0</v>
@@ -4737,19 +4752,19 @@
         <v>0.0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="CX6" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="CY6" t="n">
-        <v>1.0</v>
+        <v>0.09626436978578568</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.0</v>
+        <v>2.5</v>
       </c>
       <c r="DA6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="DB6" t="n">
         <v>0.0</v>
@@ -4764,7 +4779,7 @@
         <v>0.0</v>
       </c>
       <c r="DF6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="DG6" t="n">
         <v>1.0</v>
@@ -4773,7 +4788,7 @@
         <v>0.0</v>
       </c>
       <c r="DI6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="DJ6" t="n">
         <v>0.0</v>
@@ -4797,7 +4812,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="DR6" t="n">
         <v>0.0</v>
@@ -4812,7 +4827,7 @@
         <v>0.0</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW6" t="n">
         <v>1.0</v>
@@ -4821,7 +4836,7 @@
         <v>0.0</v>
       </c>
       <c r="DY6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="DZ6" t="n">
         <v>0.0</v>
@@ -4836,7 +4851,7 @@
         <v>0.0</v>
       </c>
       <c r="ED6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="EE6" t="n">
         <v>1.0</v>
@@ -4845,7 +4860,7 @@
         <v>0.0</v>
       </c>
       <c r="EG6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="EH6" t="n">
         <v>0.0</v>
@@ -4869,7 +4884,7 @@
         <v>0.0</v>
       </c>
       <c r="EO6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="EP6" t="n">
         <v>0.0</v>
@@ -4893,7 +4908,7 @@
         <v>0.0</v>
       </c>
       <c r="EW6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="EX6" t="n">
         <v>0.0</v>
@@ -4917,7 +4932,7 @@
         <v>0.0</v>
       </c>
       <c r="FE6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="FF6" t="n">
         <v>0.0</v>
@@ -4941,7 +4956,7 @@
         <v>0.0</v>
       </c>
       <c r="FM6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="FN6" t="n">
         <v>0.0</v>
@@ -4965,7 +4980,7 @@
         <v>0.0</v>
       </c>
       <c r="FU6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="FV6" t="n">
         <v>0.0</v>
@@ -4989,7 +5004,7 @@
         <v>0.0</v>
       </c>
       <c r="GC6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="GD6" t="n">
         <v>0.0</v>
@@ -5013,7 +5028,7 @@
         <v>0.0</v>
       </c>
       <c r="GK6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="GL6" t="n">
         <v>0.0</v>
@@ -5037,7 +5052,7 @@
         <v>0.0</v>
       </c>
       <c r="GS6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="GT6" t="n">
         <v>0.0</v>
@@ -5061,7 +5076,7 @@
         <v>0.0</v>
       </c>
       <c r="HA6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="HB6" t="n">
         <v>0.0</v>
@@ -5085,7 +5100,7 @@
         <v>0.0</v>
       </c>
       <c r="HI6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="HJ6" t="n">
         <v>0.0</v>
@@ -5109,7 +5124,7 @@
         <v>0.0</v>
       </c>
       <c r="HQ6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="HR6" t="n">
         <v>0.0</v>
@@ -5133,7 +5148,7 @@
         <v>0.0</v>
       </c>
       <c r="HY6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="HZ6" t="n">
         <v>0.0</v>
@@ -5157,7 +5172,7 @@
         <v>0.0</v>
       </c>
       <c r="IG6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="IH6" t="n">
         <v>0.0</v>
@@ -5181,7 +5196,7 @@
         <v>0.0</v>
       </c>
       <c r="IO6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="IP6" t="n">
         <v>0.0</v>
@@ -5213,22 +5228,22 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="F7" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.0</v>
+        <v>0.14120370149612427</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0</v>
+        <v>3.3333332538604736</v>
       </c>
       <c r="I7" t="s">
         <v>46</v>
@@ -5366,7 +5381,7 @@
         <v>0.0</v>
       </c>
       <c r="BB7" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC7" t="n">
         <v>1.0</v>
@@ -5438,7 +5453,7 @@
         <v>0.0</v>
       </c>
       <c r="BZ7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA7" t="n">
         <v>1.0</v>
@@ -5495,31 +5510,31 @@
         <v>0.0</v>
       </c>
       <c r="CS7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU7" t="n">
         <v>0.0</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="CX7" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="CY7" t="n">
-        <v>1.0</v>
+        <v>0.23167282342910767</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.0</v>
+        <v>1.6666666269302368</v>
       </c>
       <c r="DA7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="DB7" t="n">
         <v>0.0</v>
@@ -5534,7 +5549,7 @@
         <v>0.0</v>
       </c>
       <c r="DF7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG7" t="n">
         <v>1.0</v>
@@ -5543,7 +5558,7 @@
         <v>0.0</v>
       </c>
       <c r="DI7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="DJ7" t="n">
         <v>0.0</v>
@@ -5567,7 +5582,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DR7" t="n">
         <v>0.0</v>
@@ -5591,7 +5606,7 @@
         <v>0.0</v>
       </c>
       <c r="DY7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="DZ7" t="n">
         <v>0.0</v>
@@ -5606,7 +5621,7 @@
         <v>0.0</v>
       </c>
       <c r="ED7" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE7" t="n">
         <v>1.0</v>
@@ -5615,7 +5630,7 @@
         <v>0.0</v>
       </c>
       <c r="EG7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="EH7" t="n">
         <v>0.0</v>
@@ -5639,7 +5654,7 @@
         <v>0.0</v>
       </c>
       <c r="EO7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="EP7" t="n">
         <v>0.0</v>
@@ -5663,7 +5678,7 @@
         <v>0.0</v>
       </c>
       <c r="EW7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="EX7" t="n">
         <v>0.0</v>
@@ -5687,7 +5702,7 @@
         <v>0.0</v>
       </c>
       <c r="FE7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="FF7" t="n">
         <v>0.0</v>
@@ -5711,7 +5726,7 @@
         <v>0.0</v>
       </c>
       <c r="FM7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="FN7" t="n">
         <v>0.0</v>
@@ -5735,7 +5750,7 @@
         <v>0.0</v>
       </c>
       <c r="FU7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="FV7" t="n">
         <v>0.0</v>
@@ -5759,7 +5774,7 @@
         <v>0.0</v>
       </c>
       <c r="GC7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="GD7" t="n">
         <v>0.0</v>
@@ -5783,7 +5798,7 @@
         <v>0.0</v>
       </c>
       <c r="GK7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="GL7" t="n">
         <v>0.0</v>
@@ -5807,7 +5822,7 @@
         <v>0.0</v>
       </c>
       <c r="GS7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="GT7" t="n">
         <v>0.0</v>
@@ -5831,7 +5846,7 @@
         <v>0.0</v>
       </c>
       <c r="HA7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="HB7" t="n">
         <v>0.0</v>
@@ -5855,7 +5870,7 @@
         <v>0.0</v>
       </c>
       <c r="HI7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="HJ7" t="n">
         <v>0.0</v>
@@ -5879,7 +5894,7 @@
         <v>0.0</v>
       </c>
       <c r="HQ7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="HR7" t="n">
         <v>0.0</v>
@@ -5903,7 +5918,7 @@
         <v>0.0</v>
       </c>
       <c r="HY7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="HZ7" t="n">
         <v>0.0</v>
@@ -5927,7 +5942,7 @@
         <v>0.0</v>
       </c>
       <c r="IG7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="IH7" t="n">
         <v>0.0</v>
@@ -5951,7 +5966,7 @@
         <v>0.0</v>
       </c>
       <c r="IO7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="IP7" t="n">
         <v>0.0</v>
@@ -5980,7 +5995,7 @@
         <v>47</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
@@ -5989,16 +6004,16 @@
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="F8" t="n">
         <v>6.0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.0</v>
+        <v>0.09626436978578568</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>2.5</v>
       </c>
       <c r="I8" t="s">
         <v>47</v>
@@ -6136,7 +6151,7 @@
         <v>0.0</v>
       </c>
       <c r="BB8" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC8" t="n">
         <v>1.0</v>
@@ -6208,7 +6223,7 @@
         <v>0.0</v>
       </c>
       <c r="BZ8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA8" t="n">
         <v>1.0</v>
@@ -6265,7 +6280,7 @@
         <v>0.0</v>
       </c>
       <c r="CS8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="CT8" t="n">
         <v>0.0</v>
@@ -6280,7 +6295,7 @@
         <v>0.0</v>
       </c>
       <c r="CX8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="CY8" t="n">
         <v>1.0</v>
@@ -6289,7 +6304,7 @@
         <v>0.0</v>
       </c>
       <c r="DA8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="DB8" t="n">
         <v>0.0</v>
@@ -6304,7 +6319,7 @@
         <v>0.0</v>
       </c>
       <c r="DF8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG8" t="n">
         <v>1.0</v>
@@ -6313,7 +6328,7 @@
         <v>0.0</v>
       </c>
       <c r="DI8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="DJ8" t="n">
         <v>0.0</v>
@@ -6337,7 +6352,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="DR8" t="n">
         <v>0.0</v>
@@ -6361,7 +6376,7 @@
         <v>0.0</v>
       </c>
       <c r="DY8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="DZ8" t="n">
         <v>0.0</v>
@@ -6376,7 +6391,7 @@
         <v>0.0</v>
       </c>
       <c r="ED8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE8" t="n">
         <v>1.0</v>
@@ -6385,7 +6400,7 @@
         <v>0.0</v>
       </c>
       <c r="EG8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="EH8" t="n">
         <v>0.0</v>
@@ -6409,7 +6424,7 @@
         <v>0.0</v>
       </c>
       <c r="EO8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="EP8" t="n">
         <v>0.0</v>
@@ -6433,7 +6448,7 @@
         <v>0.0</v>
       </c>
       <c r="EW8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="EX8" t="n">
         <v>0.0</v>
@@ -6457,7 +6472,7 @@
         <v>0.0</v>
       </c>
       <c r="FE8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="FF8" t="n">
         <v>0.0</v>
@@ -6481,7 +6496,7 @@
         <v>0.0</v>
       </c>
       <c r="FM8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="FN8" t="n">
         <v>0.0</v>
@@ -6505,7 +6520,7 @@
         <v>0.0</v>
       </c>
       <c r="FU8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="FV8" t="n">
         <v>0.0</v>
@@ -6529,7 +6544,7 @@
         <v>0.0</v>
       </c>
       <c r="GC8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="GD8" t="n">
         <v>0.0</v>
@@ -6553,7 +6568,7 @@
         <v>0.0</v>
       </c>
       <c r="GK8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="GL8" t="n">
         <v>0.0</v>
@@ -6577,7 +6592,7 @@
         <v>0.0</v>
       </c>
       <c r="GS8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="GT8" t="n">
         <v>0.0</v>
@@ -6601,7 +6616,7 @@
         <v>0.0</v>
       </c>
       <c r="HA8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="HB8" t="n">
         <v>0.0</v>
@@ -6625,7 +6640,7 @@
         <v>0.0</v>
       </c>
       <c r="HI8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="HJ8" t="n">
         <v>0.0</v>
@@ -6649,7 +6664,7 @@
         <v>0.0</v>
       </c>
       <c r="HQ8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="HR8" t="n">
         <v>0.0</v>
@@ -6673,7 +6688,7 @@
         <v>0.0</v>
       </c>
       <c r="HY8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="HZ8" t="n">
         <v>0.0</v>
@@ -6697,7 +6712,7 @@
         <v>0.0</v>
       </c>
       <c r="IG8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="IH8" t="n">
         <v>0.0</v>
@@ -6721,7 +6736,7 @@
         <v>0.0</v>
       </c>
       <c r="IO8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="IP8" t="n">
         <v>0.0</v>
@@ -6750,25 +6765,25 @@
         <v>48</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="F9" t="n">
         <v>6.0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.0</v>
+        <v>0.23167282342910767</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
+        <v>1.6666666269302368</v>
       </c>
       <c r="I9" t="s">
         <v>48</v>
@@ -6906,7 +6921,7 @@
         <v>0.0</v>
       </c>
       <c r="BB9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC9" t="n">
         <v>1.0</v>
@@ -6978,7 +6993,7 @@
         <v>0.0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA9" t="n">
         <v>1.0</v>
@@ -7035,7 +7050,7 @@
         <v>0.0</v>
       </c>
       <c r="CS9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="CT9" t="n">
         <v>0.0</v>
@@ -7050,7 +7065,7 @@
         <v>0.0</v>
       </c>
       <c r="CX9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="CY9" t="n">
         <v>1.0</v>
@@ -7059,7 +7074,7 @@
         <v>0.0</v>
       </c>
       <c r="DA9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="DB9" t="n">
         <v>0.0</v>
@@ -7074,7 +7089,7 @@
         <v>0.0</v>
       </c>
       <c r="DF9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG9" t="n">
         <v>1.0</v>
@@ -7083,7 +7098,7 @@
         <v>0.0</v>
       </c>
       <c r="DI9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="DJ9" t="n">
         <v>0.0</v>
@@ -7107,7 +7122,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="DR9" t="n">
         <v>0.0</v>
@@ -7122,7 +7137,7 @@
         <v>0.0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW9" t="n">
         <v>1.0</v>
@@ -7146,7 +7161,7 @@
         <v>0.0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="EE9" t="n">
         <v>1.0</v>
@@ -7532,7 +7547,7 @@
         <v>0.0</v>
       </c>
       <c r="F10" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="G10" t="n">
         <v>1.0</v>
@@ -7820,7 +7835,7 @@
         <v>0.0</v>
       </c>
       <c r="CX10" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="CY10" t="n">
         <v>1.0</v>
@@ -7844,7 +7859,7 @@
         <v>0.0</v>
       </c>
       <c r="DF10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="DG10" t="n">
         <v>1.0</v>
@@ -7916,7 +7931,7 @@
         <v>0.0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="EE10" t="n">
         <v>1.0</v>
@@ -8302,7 +8317,7 @@
         <v>0.0</v>
       </c>
       <c r="F11" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="G11" t="n">
         <v>1.0</v>
@@ -8590,7 +8605,7 @@
         <v>0.0</v>
       </c>
       <c r="CX11" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="CY11" t="n">
         <v>1.0</v>
@@ -8614,7 +8629,7 @@
         <v>0.0</v>
       </c>
       <c r="DF11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="DG11" t="n">
         <v>1.0</v>
@@ -8686,7 +8701,7 @@
         <v>0.0</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="EE11" t="n">
         <v>1.0</v>
@@ -9072,7 +9087,7 @@
         <v>0.0</v>
       </c>
       <c r="F12" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="G12" t="n">
         <v>1.0</v>
@@ -9360,7 +9375,7 @@
         <v>0.0</v>
       </c>
       <c r="CX12" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="CY12" t="n">
         <v>1.0</v>
@@ -9384,7 +9399,7 @@
         <v>0.0</v>
       </c>
       <c r="DF12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="DG12" t="n">
         <v>1.0</v>
@@ -10226,7 +10241,7 @@
         <v>0.0</v>
       </c>
       <c r="ED13" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE13" t="n">
         <v>1.0</v>
@@ -10924,7 +10939,7 @@
         <v>0.0</v>
       </c>
       <c r="DF14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG14" t="n">
         <v>1.0</v>
@@ -10972,7 +10987,7 @@
         <v>0.0</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW14" t="n">
         <v>1.0</v>
@@ -10996,7 +11011,7 @@
         <v>0.0</v>
       </c>
       <c r="ED14" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE14" t="n">
         <v>1.0</v>
@@ -11526,7 +11541,7 @@
         <v>0.0</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="BC15" t="n">
         <v>1.0</v>
@@ -11598,7 +11613,7 @@
         <v>0.0</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA15" t="n">
         <v>1.0</v>
@@ -11670,7 +11685,7 @@
         <v>0.0</v>
       </c>
       <c r="CX15" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="CY15" t="n">
         <v>1.0</v>
@@ -11766,7 +11781,7 @@
         <v>0.0</v>
       </c>
       <c r="ED15" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE15" t="n">
         <v>1.0</v>
@@ -12296,7 +12311,7 @@
         <v>0.0</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="BC16" t="n">
         <v>1.0</v>
@@ -12368,7 +12383,7 @@
         <v>0.0</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA16" t="n">
         <v>1.0</v>
@@ -12440,7 +12455,7 @@
         <v>0.0</v>
       </c>
       <c r="CX16" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="CY16" t="n">
         <v>1.0</v>
@@ -12536,7 +12551,7 @@
         <v>0.0</v>
       </c>
       <c r="ED16" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE16" t="n">
         <v>1.0</v>
@@ -13234,7 +13249,7 @@
         <v>0.0</v>
       </c>
       <c r="DF17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG17" t="n">
         <v>1.0</v>
@@ -13282,7 +13297,7 @@
         <v>0.0</v>
       </c>
       <c r="DV17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW17" t="n">
         <v>1.0</v>
@@ -13291,7 +13306,7 @@
         <v>0.0</v>
       </c>
       <c r="DY17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="DZ17" t="n">
         <v>0.0</v>
@@ -13300,378 +13315,4228 @@
         <v>0.0</v>
       </c>
       <c r="EB17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EC17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ED17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EE17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EF17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EG17" t="s">
+        <v>57</v>
+      </c>
+      <c r="EH17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EI17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EJ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EK17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EL17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EM17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EN17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EO17" t="s">
+        <v>57</v>
+      </c>
+      <c r="EP17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EQ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ER17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ES17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ET17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EU17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EV17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EW17" t="s">
+        <v>57</v>
+      </c>
+      <c r="EX17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EY17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EZ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FA17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FB17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FC17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="FD17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FE17" t="s">
+        <v>57</v>
+      </c>
+      <c r="FF17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FG17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FH17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FI17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FJ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FK17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="FL17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FM17" t="s">
+        <v>57</v>
+      </c>
+      <c r="FN17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FO17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FP17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FQ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FR17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FS17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="FT17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FU17" t="s">
+        <v>57</v>
+      </c>
+      <c r="FV17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FW17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FX17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FY17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FZ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GA17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GB17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GC17" t="s">
+        <v>57</v>
+      </c>
+      <c r="GD17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GE17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GF17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GG17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GH17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GI17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GJ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GK17" t="s">
+        <v>57</v>
+      </c>
+      <c r="GL17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GM17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GN17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GO17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GP17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GQ17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GR17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GS17" t="s">
+        <v>57</v>
+      </c>
+      <c r="GT17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GU17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GV17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GW17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GX17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GY17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GZ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HA17" t="s">
+        <v>57</v>
+      </c>
+      <c r="HB17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HC17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HD17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HE17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HF17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HG17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="HH17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HI17" t="s">
+        <v>57</v>
+      </c>
+      <c r="HJ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HK17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HL17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HM17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HN17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HO17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="HP17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HQ17" t="s">
+        <v>57</v>
+      </c>
+      <c r="HR17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HS17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HT17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HU17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HV17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HW17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="HX17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HY17" t="s">
+        <v>57</v>
+      </c>
+      <c r="HZ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IA17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IB17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IC17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ID17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IE17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="IF17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IG17" t="s">
+        <v>57</v>
+      </c>
+      <c r="IH17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="II17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IJ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IK17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IL17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IM17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="IN17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IO17" t="s">
+        <v>57</v>
+      </c>
+      <c r="IP17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IQ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IR17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IS17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IT17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IU17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="IV17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>57</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>57</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>57</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC18" t="s">
+        <v>57</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK18" t="s">
+        <v>57</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS18" t="s">
+        <v>57</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA18" t="s">
+        <v>57</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI18" t="s">
+        <v>57</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DQ18" t="s">
+        <v>57</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DS18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DT18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DU18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DW18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DX18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY18" t="s">
+        <v>58</v>
+      </c>
+      <c r="DZ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EB18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ED18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EE18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EF18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EG18" t="s">
+        <v>58</v>
+      </c>
+      <c r="EH18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EI18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EJ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EK18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EL18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EM18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EN18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EO18" t="s">
+        <v>58</v>
+      </c>
+      <c r="EP18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EQ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ER18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ES18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ET18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EU18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EV18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EW18" t="s">
+        <v>58</v>
+      </c>
+      <c r="EX18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EY18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EZ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FA18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FB18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FC18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="FD18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FE18" t="s">
+        <v>58</v>
+      </c>
+      <c r="FF18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FG18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FH18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FI18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FJ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FK18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="FL18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FM18" t="s">
+        <v>58</v>
+      </c>
+      <c r="FN18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FO18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FP18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FQ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FR18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FS18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="FT18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FU18" t="s">
+        <v>58</v>
+      </c>
+      <c r="FV18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FW18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FX18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FY18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FZ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GA18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GB18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GC18" t="s">
+        <v>58</v>
+      </c>
+      <c r="GD18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GE18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GF18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GG18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GH18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GI18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GJ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GK18" t="s">
+        <v>58</v>
+      </c>
+      <c r="GL18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GM18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GN18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GO18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GP18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GQ18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GR18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GS18" t="s">
+        <v>58</v>
+      </c>
+      <c r="GT18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GU18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GV18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GW18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GX18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GY18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GZ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HA18" t="s">
+        <v>58</v>
+      </c>
+      <c r="HB18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HC18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HD18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HE18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HF18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HG18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="HH18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HI18" t="s">
+        <v>58</v>
+      </c>
+      <c r="HJ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HK18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HL18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HM18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HN18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HO18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="HP18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HQ18" t="s">
+        <v>58</v>
+      </c>
+      <c r="HR18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HS18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HT18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HU18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HV18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HW18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="HX18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HY18" t="s">
+        <v>58</v>
+      </c>
+      <c r="HZ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IA18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IB18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IC18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ID18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IE18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="IF18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IG18" t="s">
+        <v>58</v>
+      </c>
+      <c r="IH18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="II18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IJ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IK18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IL18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IM18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="IN18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IO18" t="s">
+        <v>58</v>
+      </c>
+      <c r="IP18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IQ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IR18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IS18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IT18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IU18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="IV18" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>58</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>58</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>58</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC19" t="s">
+        <v>58</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK19" t="s">
+        <v>58</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS19" t="s">
+        <v>58</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA19" t="s">
+        <v>58</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI19" t="s">
+        <v>58</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DQ19" t="s">
+        <v>58</v>
+      </c>
+      <c r="DR19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DS19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DT19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DU19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DW19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DX19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY19" t="s">
+        <v>59</v>
+      </c>
+      <c r="DZ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EB19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ED19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="EE19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EF19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EG19" t="s">
+        <v>59</v>
+      </c>
+      <c r="EH19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EI19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EJ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EK19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EL19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EM19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EN19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EO19" t="s">
+        <v>59</v>
+      </c>
+      <c r="EP19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EQ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ER19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ES19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ET19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EU19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EV19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EW19" t="s">
+        <v>59</v>
+      </c>
+      <c r="EX19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EY19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EZ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FA19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FB19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FC19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="FD19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FE19" t="s">
+        <v>59</v>
+      </c>
+      <c r="FF19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FG19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FH19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FI19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FJ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FK19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="FL19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FM19" t="s">
+        <v>59</v>
+      </c>
+      <c r="FN19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FO19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FP19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FQ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FR19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FS19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="FT19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FU19" t="s">
+        <v>59</v>
+      </c>
+      <c r="FV19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FW19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FX19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FY19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FZ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GA19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GB19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GC19" t="s">
+        <v>59</v>
+      </c>
+      <c r="GD19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GE19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GF19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GG19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GH19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GI19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GJ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GK19" t="s">
+        <v>59</v>
+      </c>
+      <c r="GL19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GM19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GN19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GO19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GP19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GQ19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GR19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GS19" t="s">
+        <v>59</v>
+      </c>
+      <c r="GT19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GU19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GV19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GW19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GX19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GY19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GZ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HA19" t="s">
+        <v>59</v>
+      </c>
+      <c r="HB19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HC19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HD19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HE19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HF19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HG19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="HH19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HI19" t="s">
+        <v>59</v>
+      </c>
+      <c r="HJ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HK19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HL19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HM19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HN19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HO19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="HP19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HQ19" t="s">
+        <v>59</v>
+      </c>
+      <c r="HR19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HS19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HT19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HU19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HV19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HW19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="HX19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HY19" t="s">
+        <v>59</v>
+      </c>
+      <c r="HZ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IA19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IB19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IC19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ID19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IE19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="IF19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IG19" t="s">
+        <v>59</v>
+      </c>
+      <c r="IH19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="II19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IJ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IK19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IL19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IM19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="IN19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IO19" t="s">
+        <v>59</v>
+      </c>
+      <c r="IP19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IQ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IR19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IS19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IT19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IU19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="IV19" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>59</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>59</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC20" t="s">
+        <v>59</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK20" t="s">
+        <v>59</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS20" t="s">
+        <v>59</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA20" t="s">
+        <v>59</v>
+      </c>
+      <c r="DB20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI20" t="s">
+        <v>59</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DQ20" t="s">
+        <v>59</v>
+      </c>
+      <c r="DR20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DS20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DT20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DU20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DW20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DX20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY20" t="s">
+        <v>60</v>
+      </c>
+      <c r="DZ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EB20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ED20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="EE20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EF20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EG20" t="s">
+        <v>60</v>
+      </c>
+      <c r="EH20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EI20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EJ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EK20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EL20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EM20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EN20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EO20" t="s">
+        <v>60</v>
+      </c>
+      <c r="EP20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EQ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ER20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ES20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ET20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EU20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EV20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EW20" t="s">
+        <v>60</v>
+      </c>
+      <c r="EX20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EY20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EZ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FA20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FB20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FC20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="FD20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FE20" t="s">
+        <v>60</v>
+      </c>
+      <c r="FF20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FG20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FH20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FI20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FJ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FK20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="FL20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FM20" t="s">
+        <v>60</v>
+      </c>
+      <c r="FN20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FO20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FP20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FQ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FR20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FS20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="FT20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FU20" t="s">
+        <v>60</v>
+      </c>
+      <c r="FV20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FW20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FX20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FY20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FZ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GA20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GB20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GC20" t="s">
+        <v>60</v>
+      </c>
+      <c r="GD20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GE20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GF20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GG20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GH20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GI20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GJ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GK20" t="s">
+        <v>60</v>
+      </c>
+      <c r="GL20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GM20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GN20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GO20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GP20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GQ20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GR20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GS20" t="s">
+        <v>60</v>
+      </c>
+      <c r="GT20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GU20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GV20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GW20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GX20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GY20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GZ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HA20" t="s">
+        <v>60</v>
+      </c>
+      <c r="HB20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HC20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HD20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HE20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HF20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HG20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="HH20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HI20" t="s">
+        <v>60</v>
+      </c>
+      <c r="HJ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HK20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HL20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HM20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HN20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HO20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="HP20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HQ20" t="s">
+        <v>60</v>
+      </c>
+      <c r="HR20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HS20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HT20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HU20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HV20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HW20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="HX20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HY20" t="s">
+        <v>60</v>
+      </c>
+      <c r="HZ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IA20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IB20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IC20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ID20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IE20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="IF20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IG20" t="s">
+        <v>60</v>
+      </c>
+      <c r="IH20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="II20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IJ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IK20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IL20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IM20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="IN20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IO20" t="s">
+        <v>60</v>
+      </c>
+      <c r="IP20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IQ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IR20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IS20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IT20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IU20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="IV20" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>60</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>60</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>60</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC21" t="s">
+        <v>60</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK21" t="s">
+        <v>60</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS21" t="s">
+        <v>60</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA21" t="s">
+        <v>60</v>
+      </c>
+      <c r="DB21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI21" t="s">
+        <v>60</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DQ21" t="s">
+        <v>60</v>
+      </c>
+      <c r="DR21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DS21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DT21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DU21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DW21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DX21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY21" t="s">
+        <v>61</v>
+      </c>
+      <c r="DZ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EB21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ED21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="EE21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EF21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EG21" t="s">
+        <v>61</v>
+      </c>
+      <c r="EH21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EI21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EJ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EK21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EL21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EM21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EN21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EO21" t="s">
+        <v>61</v>
+      </c>
+      <c r="EP21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EQ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ER21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ES21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ET21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EU21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EV21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EW21" t="s">
+        <v>61</v>
+      </c>
+      <c r="EX21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EY21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EZ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FA21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FB21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FC21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="FD21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FE21" t="s">
+        <v>61</v>
+      </c>
+      <c r="FF21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FG21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FH21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FI21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FJ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FK21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="FL21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FM21" t="s">
+        <v>61</v>
+      </c>
+      <c r="FN21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FO21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FP21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FQ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FR21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FS21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="FT21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FU21" t="s">
+        <v>61</v>
+      </c>
+      <c r="FV21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FW21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FX21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FY21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FZ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GA21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GB21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GC21" t="s">
+        <v>61</v>
+      </c>
+      <c r="GD21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GE21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GF21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GG21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GH21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GI21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GJ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GK21" t="s">
+        <v>61</v>
+      </c>
+      <c r="GL21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GM21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GN21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GO21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GP21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GQ21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GR21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GS21" t="s">
+        <v>61</v>
+      </c>
+      <c r="GT21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GU21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GV21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GW21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GX21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GY21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GZ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HA21" t="s">
+        <v>61</v>
+      </c>
+      <c r="HB21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HC21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HD21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HE21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HF21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HG21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="HH21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HI21" t="s">
+        <v>61</v>
+      </c>
+      <c r="HJ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HK21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HL21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HM21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HN21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HO21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="HP21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HQ21" t="s">
+        <v>61</v>
+      </c>
+      <c r="HR21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HS21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HT21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HU21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HV21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HW21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="HX21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HY21" t="s">
+        <v>61</v>
+      </c>
+      <c r="HZ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IA21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IB21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IC21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ID21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IE21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="IF21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IG21" t="s">
+        <v>61</v>
+      </c>
+      <c r="IH21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="II21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IJ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IK21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IL21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IM21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="IN21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IO21" t="s">
+        <v>61</v>
+      </c>
+      <c r="IP21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IQ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IR21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IS21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IT21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IU21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="IV21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>61</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>61</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>61</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC22" t="s">
+        <v>61</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK22" t="s">
+        <v>61</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS22" t="s">
+        <v>61</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA22" t="s">
+        <v>61</v>
+      </c>
+      <c r="DB22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI22" t="s">
+        <v>61</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DQ22" t="s">
+        <v>61</v>
+      </c>
+      <c r="DR22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DS22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DT22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DU22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DW22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DX22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY22" t="s">
+        <v>48</v>
+      </c>
+      <c r="DZ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EB22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EC22" t="n">
         <v>-5.0</v>
       </c>
-      <c r="ED17" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="EE17" t="n">
-        <v>0.48134326934814453</v>
-      </c>
-      <c r="EF17" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="EG17" t="s">
-        <v>45</v>
-      </c>
-      <c r="EH17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="EI17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="EJ17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="EK17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="EL17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="EM17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="EN17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="EO17" t="s">
-        <v>45</v>
-      </c>
-      <c r="EP17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="EQ17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="ER17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="ES17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="ET17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="EU17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="EV17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="EW17" t="s">
-        <v>45</v>
-      </c>
-      <c r="EX17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="EY17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="EZ17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="FA17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="FB17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="FC17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="FD17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="FE17" t="s">
-        <v>45</v>
-      </c>
-      <c r="FF17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="FG17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="FH17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="FI17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="FJ17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="FK17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="FL17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="FM17" t="s">
-        <v>45</v>
-      </c>
-      <c r="FN17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="FO17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="FP17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="FQ17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="FR17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="FS17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="FT17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="FU17" t="s">
-        <v>45</v>
-      </c>
-      <c r="FV17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="FW17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="FX17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="FY17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="FZ17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="GA17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="GB17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="GC17" t="s">
-        <v>45</v>
-      </c>
-      <c r="GD17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="GE17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="GF17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="GG17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="GH17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="GI17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="GJ17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="GK17" t="s">
-        <v>45</v>
-      </c>
-      <c r="GL17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="GM17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="GN17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="GO17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="GP17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="GQ17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="GR17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="GS17" t="s">
-        <v>45</v>
-      </c>
-      <c r="GT17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="GU17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="GV17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="GW17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="GX17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="GY17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="GZ17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="HA17" t="s">
-        <v>45</v>
-      </c>
-      <c r="HB17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="HC17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="HD17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="HE17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="HF17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="HG17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="HH17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="HI17" t="s">
-        <v>45</v>
-      </c>
-      <c r="HJ17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="HK17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="HL17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="HM17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="HN17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="HO17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="HP17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="HQ17" t="s">
-        <v>45</v>
-      </c>
-      <c r="HR17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="HS17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="HT17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="HU17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="HV17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="HW17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="HX17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="HY17" t="s">
-        <v>45</v>
-      </c>
-      <c r="HZ17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="IA17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="IB17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="IC17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="ID17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="IE17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="IF17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="IG17" t="s">
-        <v>45</v>
-      </c>
-      <c r="IH17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="II17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="IJ17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="IK17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="IL17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="IM17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="IN17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="IO17" t="s">
-        <v>45</v>
-      </c>
-      <c r="IP17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="IQ17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="IR17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="IS17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="IT17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="IU17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="IV17" t="n">
+      <c r="ED22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="EE22" t="n">
+        <v>0.3208955228328705</v>
+      </c>
+      <c r="EF22" t="n">
+        <v>-1.6666666269302368</v>
+      </c>
+      <c r="EG22" t="s">
+        <v>48</v>
+      </c>
+      <c r="EH22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EI22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EJ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EK22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EL22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EM22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EN22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EO22" t="s">
+        <v>48</v>
+      </c>
+      <c r="EP22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EQ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ER22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ES22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ET22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EU22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EV22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EW22" t="s">
+        <v>48</v>
+      </c>
+      <c r="EX22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EY22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EZ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FA22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FB22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FC22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="FD22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FE22" t="s">
+        <v>48</v>
+      </c>
+      <c r="FF22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FG22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FH22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FI22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FJ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FK22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="FL22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FM22" t="s">
+        <v>48</v>
+      </c>
+      <c r="FN22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FO22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FP22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FQ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FR22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FS22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="FT22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FU22" t="s">
+        <v>48</v>
+      </c>
+      <c r="FV22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FW22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FX22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FY22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FZ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GA22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GB22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GC22" t="s">
+        <v>48</v>
+      </c>
+      <c r="GD22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GE22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GF22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GG22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GH22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GI22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GJ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GK22" t="s">
+        <v>48</v>
+      </c>
+      <c r="GL22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GM22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GN22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GO22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GP22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GQ22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GR22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GS22" t="s">
+        <v>48</v>
+      </c>
+      <c r="GT22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GU22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GV22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GW22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GX22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GY22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="GZ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HA22" t="s">
+        <v>48</v>
+      </c>
+      <c r="HB22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HC22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HD22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HE22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HF22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HG22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="HH22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HI22" t="s">
+        <v>48</v>
+      </c>
+      <c r="HJ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HK22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HL22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HM22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HN22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HO22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="HP22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HQ22" t="s">
+        <v>48</v>
+      </c>
+      <c r="HR22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HS22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HT22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HU22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HV22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HW22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="HX22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HY22" t="s">
+        <v>48</v>
+      </c>
+      <c r="HZ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IA22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IB22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IC22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ID22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IE22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="IF22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IG22" t="s">
+        <v>48</v>
+      </c>
+      <c r="IH22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="II22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IJ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IK22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IL22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IM22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="IN22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IO22" t="s">
+        <v>48</v>
+      </c>
+      <c r="IP22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IQ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IR22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IS22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IT22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="IU22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="IV22" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/exportdata/ranking.xlsx
+++ b/exportdata/ranking.xlsx
@@ -1921,7 +1921,7 @@
         <v>21.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.296371191740036</v>
+        <v>0.5657995343208313</v>
       </c>
       <c r="H3" t="n">
         <v>5.0</v>
@@ -1945,7 +1945,7 @@
         <v>4.0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4079192280769348</v>
+        <v>0.5438923239707947</v>
       </c>
       <c r="P3" t="n">
         <v>7.5</v>
@@ -2017,7 +2017,7 @@
         <v>2.0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.2347826063632965</v>
+        <v>0.469565212726593</v>
       </c>
       <c r="AN3" t="n">
         <v>5.0</v>
@@ -2065,7 +2065,7 @@
         <v>5.0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.3188033998012543</v>
+        <v>0.7970085144042969</v>
       </c>
       <c r="BD3" t="n">
         <v>4.0</v>
@@ -2089,7 +2089,7 @@
         <v>2.0</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.49145299196243286</v>
+        <v>0.9829059839248657</v>
       </c>
       <c r="BL3" t="n">
         <v>5.0</v>
@@ -2209,7 +2209,7 @@
         <v>4.0</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.32572320103645325</v>
+        <v>0.6514464020729065</v>
       </c>
       <c r="CZ3" t="n">
         <v>6.25</v>
@@ -2425,7 +2425,7 @@
         <v>2.0</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.1525423675775528</v>
+        <v>0.3050847351551056</v>
       </c>
       <c r="FT3" t="n">
         <v>7.5</v>
@@ -2569,7 +2569,7 @@
         <v>3.0</v>
       </c>
       <c r="HO3" t="n">
-        <v>0.5003026127815247</v>
+        <v>0.7504539489746094</v>
       </c>
       <c r="HP3" t="n">
         <v>6.666666507720947</v>
@@ -2691,7 +2691,7 @@
         <v>17.0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.12549825012683868</v>
+        <v>0.7111567854881287</v>
       </c>
       <c r="H4" t="n">
         <v>1.7647058963775635</v>
@@ -2715,7 +2715,7 @@
         <v>3.0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2182890772819519</v>
+        <v>0.6548672318458557</v>
       </c>
       <c r="P4" t="n">
         <v>3.3333332538604736</v>
@@ -2787,7 +2787,7 @@
         <v>2.0</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.32743361592292786</v>
+        <v>0.6548672318458557</v>
       </c>
       <c r="AN4" t="n">
         <v>5.0</v>
@@ -2835,7 +2835,7 @@
         <v>5.0</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.1589009016752243</v>
+        <v>0.39725226163864136</v>
       </c>
       <c r="BD4" t="n">
         <v>2.0</v>
@@ -2979,7 +2979,7 @@
         <v>4.0</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.28452685475349426</v>
+        <v>0.5690537095069885</v>
       </c>
       <c r="CZ4" t="n">
         <v>6.25</v>
@@ -3195,7 +3195,7 @@
         <v>2.0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.20353981852531433</v>
+        <v>0.40707963705062866</v>
       </c>
       <c r="FT4" t="n">
         <v>7.5</v>
@@ -3339,7 +3339,7 @@
         <v>2.0</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.4566929042339325</v>
+        <v>0.913385808467865</v>
       </c>
       <c r="HP4" t="n">
         <v>5.0</v>
@@ -3435,7 +3435,7 @@
         <v>2.0</v>
       </c>
       <c r="IU4" t="n">
-        <v>0.49152541160583496</v>
+        <v>0.9830508232116699</v>
       </c>
       <c r="IV4" t="n">
         <v>5.0</v>
@@ -3461,7 +3461,7 @@
         <v>21.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08202245086431503</v>
+        <v>0.4306178689002991</v>
       </c>
       <c r="H5" t="n">
         <v>1.6666666269302368</v>
@@ -3605,7 +3605,7 @@
         <v>5.0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.16239316761493683</v>
+        <v>0.4059829115867615</v>
       </c>
       <c r="BD5" t="n">
         <v>1.0</v>
@@ -4231,7 +4231,7 @@
         <v>21.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0386650376021862</v>
+        <v>0.4059829115867615</v>
       </c>
       <c r="H6" t="n">
         <v>0.2380952388048172</v>
@@ -5001,7 +5001,7 @@
         <v>21.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01938474550843239</v>
+        <v>0.40707963705062866</v>
       </c>
       <c r="H7" t="n">
         <v>0.7142857313156128</v>
@@ -5771,7 +5771,7 @@
         <v>21.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07590557634830475</v>
+        <v>0.7970085144042969</v>
       </c>
       <c r="H8" t="n">
         <v>0.9523809552192688</v>
@@ -5915,7 +5915,7 @@
         <v>5.0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.05585585907101631</v>
+        <v>0.27927929162979126</v>
       </c>
       <c r="BD8" t="n">
         <v>-1.0</v>

--- a/exportdata/ranking.xlsx
+++ b/exportdata/ranking.xlsx
@@ -144,7 +144,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>-5</t>
+    <t xml:space="preserve"> -5</t>
   </si>
   <si>
     <t>Heard</t>
@@ -303,76 +303,76 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.16796875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="18.3984375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="25.921875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="32.0234375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="23.36328125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.16796875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="7.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="7.16796875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.27734375" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="14.93359375" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="7.16796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="7.16796875" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="46" max="46" width="17.234375" customWidth="true" bestFit="true"/>
-    <col min="47" max="47" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="49" max="49" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="50" max="50" width="7.16796875" customWidth="true" bestFit="true"/>
-    <col min="52" max="52" width="20.6171875" customWidth="true" bestFit="true"/>
-    <col min="53" max="53" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="55" max="55" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="56" max="56" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="58" max="58" width="16.546875" customWidth="true" bestFit="true"/>
-    <col min="59" max="59" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="61" max="61" width="19.25" customWidth="true" bestFit="true"/>
-    <col min="62" max="62" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="64" max="64" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="65" max="65" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="67" max="67" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="68" max="68" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="70" max="70" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="71" max="71" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="73" max="73" width="11.9453125" customWidth="true" bestFit="true"/>
-    <col min="74" max="74" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="76" max="76" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="77" max="77" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="79" max="79" width="12.14453125" customWidth="true" bestFit="true"/>
-    <col min="80" max="80" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="82" max="82" width="14.921875" customWidth="true" bestFit="true"/>
-    <col min="83" max="83" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="85" max="85" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="86" max="86" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="88" max="88" width="12.0625" customWidth="true" bestFit="true"/>
-    <col min="89" max="89" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="91" max="91" width="15.875" customWidth="true" bestFit="true"/>
-    <col min="92" max="92" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="94" max="94" width="32.46484375" customWidth="true" bestFit="true"/>
-    <col min="95" max="95" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="97" max="97" width="16.7890625" customWidth="true" bestFit="true"/>
-    <col min="98" max="98" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="100" max="100" width="14.9140625" customWidth="true" bestFit="true"/>
-    <col min="101" max="101" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="103" max="103" width="18.15625" customWidth="true" bestFit="true"/>
-    <col min="104" max="104" width="6.05078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="12.0078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.45703125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.0078125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="20.78125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="29.0546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="35.00390625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="25.89453125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="12.0078125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.45703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="12.0078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="7.45703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="12.75" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="7.45703125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="12.0078125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="15.82421875" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="17.046875" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="12.625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="7.45703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="13.3671875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="7.45703125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="15.171875" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" width="19.40625" customWidth="true" bestFit="true"/>
+    <col min="47" max="47" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="49" max="49" width="12.0078125" customWidth="true" bestFit="true"/>
+    <col min="50" max="50" width="7.45703125" customWidth="true" bestFit="true"/>
+    <col min="52" max="52" width="23.00390625" customWidth="true" bestFit="true"/>
+    <col min="53" max="53" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="55" max="55" width="12.0078125" customWidth="true" bestFit="true"/>
+    <col min="56" max="56" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="58" max="58" width="19.08203125" customWidth="true" bestFit="true"/>
+    <col min="59" max="59" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="61" max="61" width="21.91015625" customWidth="true" bestFit="true"/>
+    <col min="62" max="62" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="64" max="64" width="18.625" customWidth="true" bestFit="true"/>
+    <col min="65" max="65" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="67" max="67" width="12.0078125" customWidth="true" bestFit="true"/>
+    <col min="68" max="68" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="70" max="70" width="12.0078125" customWidth="true" bestFit="true"/>
+    <col min="71" max="71" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="73" max="73" width="13.13671875" customWidth="true" bestFit="true"/>
+    <col min="74" max="74" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="76" max="76" width="12.0078125" customWidth="true" bestFit="true"/>
+    <col min="77" max="77" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="79" max="79" width="13.65234375" customWidth="true" bestFit="true"/>
+    <col min="80" max="80" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="82" max="82" width="17.34765625" customWidth="true" bestFit="true"/>
+    <col min="83" max="83" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="85" max="85" width="12.0078125" customWidth="true" bestFit="true"/>
+    <col min="86" max="86" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="88" max="88" width="13.59375" customWidth="true" bestFit="true"/>
+    <col min="89" max="89" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="91" max="91" width="18.1875" customWidth="true" bestFit="true"/>
+    <col min="92" max="92" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="94" max="94" width="35.8671875" customWidth="true" bestFit="true"/>
+    <col min="95" max="95" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="97" max="97" width="19.0078125" customWidth="true" bestFit="true"/>
+    <col min="98" max="98" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="100" max="100" width="16.8125" customWidth="true" bestFit="true"/>
+    <col min="101" max="101" width="6.2890625" customWidth="true" bestFit="true"/>
+    <col min="103" max="103" width="20.609375" customWidth="true" bestFit="true"/>
+    <col min="104" max="104" width="6.2890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1555,286 +1555,286 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="18.3984375" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="25.921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" width="32.0234375" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="23.36328125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="45" max="45" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="46" max="46" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="47" max="47" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="48" max="48" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="49" max="49" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="50" max="50" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="51" max="51" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="52" max="52" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="53" max="53" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="54" max="54" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="55" max="55" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="56" max="56" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="57" max="57" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="58" max="58" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="59" max="59" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="60" max="60" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="61" max="61" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="62" max="62" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="63" max="63" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="64" max="64" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="65" max="65" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="66" max="66" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="67" max="67" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="68" max="68" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="69" max="69" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="70" max="70" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="71" max="71" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="72" max="72" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="73" max="73" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="74" max="74" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="75" max="75" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="76" max="76" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="77" max="77" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="78" max="78" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="79" max="79" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="80" max="80" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="81" max="81" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="82" max="82" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="83" max="83" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="84" max="84" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="85" max="85" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="86" max="86" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="87" max="87" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="88" max="88" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="89" max="89" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="90" max="90" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="91" max="91" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="92" max="92" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="93" max="93" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="94" max="94" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="95" max="95" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="96" max="96" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="97" max="97" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="98" max="98" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="99" max="99" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="100" max="100" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="101" max="101" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="102" max="102" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="103" max="103" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="104" max="104" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="105" max="105" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="106" max="106" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="107" max="107" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="108" max="108" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="109" max="109" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="110" max="110" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="111" max="111" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="112" max="112" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="113" max="113" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="114" max="114" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="115" max="115" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="116" max="116" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="117" max="117" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="118" max="118" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="119" max="119" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="120" max="120" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="121" max="121" width="17.234375" customWidth="true" bestFit="true"/>
-    <col min="122" max="122" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="123" max="123" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="124" max="124" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="125" max="125" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="126" max="126" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="127" max="127" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="128" max="128" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="129" max="129" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="130" max="130" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="131" max="131" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="132" max="132" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="133" max="133" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="134" max="134" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="135" max="135" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="136" max="136" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="137" max="137" width="20.6171875" customWidth="true" bestFit="true"/>
-    <col min="138" max="138" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="139" max="139" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="140" max="140" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="141" max="141" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="142" max="142" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="143" max="143" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="144" max="144" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="145" max="145" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="146" max="146" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="147" max="147" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="148" max="148" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="149" max="149" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="150" max="150" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="151" max="151" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="152" max="152" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="153" max="153" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="154" max="154" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="155" max="155" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="156" max="156" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="157" max="157" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="158" max="158" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="159" max="159" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="160" max="160" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="161" max="161" width="19.25" customWidth="true" bestFit="true"/>
-    <col min="162" max="162" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="163" max="163" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="164" max="164" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="165" max="165" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="166" max="166" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="167" max="167" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="168" max="168" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="169" max="169" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="170" max="170" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="171" max="171" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="172" max="172" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="173" max="173" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="174" max="174" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="175" max="175" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="176" max="176" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="177" max="177" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="178" max="178" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="179" max="179" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="180" max="180" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="181" max="181" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="182" max="182" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="183" max="183" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="184" max="184" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="185" max="185" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="186" max="186" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="187" max="187" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="188" max="188" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="189" max="189" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="190" max="190" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="191" max="191" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="192" max="192" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="193" max="193" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="194" max="194" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="195" max="195" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="196" max="196" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="197" max="197" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="198" max="198" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="199" max="199" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="200" max="200" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="201" max="201" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="202" max="202" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="203" max="203" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="204" max="204" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="205" max="205" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="206" max="206" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="207" max="207" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="208" max="208" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="209" max="209" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="210" max="210" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="211" max="211" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="212" max="212" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="213" max="213" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="214" max="214" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="215" max="215" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="216" max="216" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="217" max="217" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="218" max="218" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="219" max="219" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="220" max="220" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="221" max="221" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="222" max="222" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="223" max="223" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="224" max="224" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="225" max="225" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="226" max="226" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="227" max="227" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="228" max="228" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="229" max="229" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="230" max="230" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="231" max="231" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="232" max="232" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="233" max="233" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="234" max="234" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="235" max="235" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="236" max="236" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="237" max="237" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="238" max="238" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="239" max="239" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="240" max="240" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="241" max="241" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="242" max="242" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="243" max="243" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="244" max="244" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="245" max="245" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="246" max="246" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="247" max="247" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="248" max="248" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="249" max="249" width="32.46484375" customWidth="true" bestFit="true"/>
-    <col min="250" max="250" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="251" max="251" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="252" max="252" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="253" max="253" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="254" max="254" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="255" max="255" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="256" max="256" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="257" max="257" width="16.7890625" customWidth="true" bestFit="true"/>
-    <col min="258" max="258" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="259" max="259" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="260" max="260" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="261" max="261" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="262" max="262" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="263" max="263" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="264" max="264" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="265" max="265" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="266" max="266" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="267" max="267" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="268" max="268" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="269" max="269" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="270" max="270" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="271" max="271" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="272" max="272" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="273" max="273" width="18.15625" customWidth="true" bestFit="true"/>
-    <col min="274" max="274" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="275" max="275" width="3.58203125" customWidth="true" bestFit="true"/>
-    <col min="276" max="276" width="3.09765625" customWidth="true" bestFit="true"/>
-    <col min="277" max="277" width="6.234375" customWidth="true" bestFit="true"/>
-    <col min="278" max="278" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="279" max="279" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="280" max="280" width="7.97265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.78125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="29.0546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="35.00390625" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="25.89453125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="47" max="47" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="48" max="48" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="49" max="49" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="50" max="50" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="51" max="51" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="52" max="52" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="53" max="53" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="54" max="54" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="55" max="55" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="56" max="56" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="57" max="57" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="58" max="58" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="59" max="59" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="60" max="60" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="61" max="61" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="62" max="62" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="63" max="63" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="64" max="64" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="65" max="65" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="66" max="66" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="67" max="67" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="68" max="68" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="69" max="69" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="70" max="70" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="71" max="71" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="72" max="72" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="73" max="73" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="74" max="74" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="75" max="75" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="76" max="76" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="77" max="77" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="78" max="78" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="79" max="79" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="80" max="80" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="81" max="81" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="82" max="82" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="83" max="83" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="84" max="84" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="85" max="85" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="86" max="86" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="87" max="87" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="88" max="88" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="89" max="89" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="90" max="90" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="91" max="91" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="92" max="92" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="93" max="93" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="94" max="94" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="95" max="95" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="96" max="96" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="97" max="97" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="98" max="98" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="99" max="99" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="100" max="100" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="101" max="101" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="102" max="102" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="103" max="103" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="104" max="104" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="105" max="105" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="106" max="106" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="107" max="107" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="108" max="108" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="109" max="109" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="110" max="110" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="111" max="111" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="112" max="112" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="113" max="113" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="114" max="114" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="115" max="115" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="116" max="116" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="117" max="117" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="118" max="118" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="119" max="119" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="120" max="120" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="121" max="121" width="19.40625" customWidth="true" bestFit="true"/>
+    <col min="122" max="122" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="123" max="123" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="124" max="124" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="125" max="125" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="126" max="126" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="127" max="127" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="128" max="128" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="129" max="129" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="130" max="130" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="131" max="131" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="132" max="132" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="133" max="133" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="134" max="134" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="135" max="135" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="136" max="136" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="137" max="137" width="23.00390625" customWidth="true" bestFit="true"/>
+    <col min="138" max="138" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="139" max="139" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="140" max="140" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="141" max="141" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="142" max="142" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="143" max="143" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="144" max="144" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="145" max="145" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="146" max="146" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="147" max="147" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="148" max="148" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="149" max="149" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="150" max="150" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="151" max="151" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="152" max="152" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="153" max="153" width="19.08203125" customWidth="true" bestFit="true"/>
+    <col min="154" max="154" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="155" max="155" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="156" max="156" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="157" max="157" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="158" max="158" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="159" max="159" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="160" max="160" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="161" max="161" width="21.91015625" customWidth="true" bestFit="true"/>
+    <col min="162" max="162" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="163" max="163" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="164" max="164" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="165" max="165" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="166" max="166" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="167" max="167" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="168" max="168" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="169" max="169" width="18.625" customWidth="true" bestFit="true"/>
+    <col min="170" max="170" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="171" max="171" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="172" max="172" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="173" max="173" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="174" max="174" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="175" max="175" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="176" max="176" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="177" max="177" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="178" max="178" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="179" max="179" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="180" max="180" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="181" max="181" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="182" max="182" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="183" max="183" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="184" max="184" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="185" max="185" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="186" max="186" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="187" max="187" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="188" max="188" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="189" max="189" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="190" max="190" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="191" max="191" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="192" max="192" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="193" max="193" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="194" max="194" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="195" max="195" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="196" max="196" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="197" max="197" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="198" max="198" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="199" max="199" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="200" max="200" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="201" max="201" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="202" max="202" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="203" max="203" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="204" max="204" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="205" max="205" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="206" max="206" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="207" max="207" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="208" max="208" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="209" max="209" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="210" max="210" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="211" max="211" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="212" max="212" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="213" max="213" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="214" max="214" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="215" max="215" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="216" max="216" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="217" max="217" width="17.34765625" customWidth="true" bestFit="true"/>
+    <col min="218" max="218" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="219" max="219" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="220" max="220" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="221" max="221" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="222" max="222" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="223" max="223" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="224" max="224" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="225" max="225" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="226" max="226" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="227" max="227" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="228" max="228" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="229" max="229" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="230" max="230" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="231" max="231" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="232" max="232" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="233" max="233" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="234" max="234" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="235" max="235" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="236" max="236" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="237" max="237" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="238" max="238" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="239" max="239" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="240" max="240" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="241" max="241" width="18.1875" customWidth="true" bestFit="true"/>
+    <col min="242" max="242" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="243" max="243" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="244" max="244" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="245" max="245" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="246" max="246" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="247" max="247" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="248" max="248" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="249" max="249" width="35.8671875" customWidth="true" bestFit="true"/>
+    <col min="250" max="250" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="251" max="251" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="252" max="252" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="253" max="253" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="254" max="254" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="255" max="255" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="256" max="256" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="257" max="257" width="19.0078125" customWidth="true" bestFit="true"/>
+    <col min="258" max="258" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="259" max="259" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="260" max="260" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="261" max="261" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="262" max="262" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="263" max="263" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="264" max="264" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="265" max="265" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="266" max="266" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="267" max="267" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="268" max="268" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="269" max="269" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="270" max="270" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="271" max="271" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="272" max="272" width="8.890625" customWidth="true" bestFit="true"/>
+    <col min="273" max="273" width="20.609375" customWidth="true" bestFit="true"/>
+    <col min="274" max="274" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="275" max="275" width="4.078125" customWidth="true" bestFit="true"/>
+    <col min="276" max="276" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="277" max="277" width="7.0234375" customWidth="true" bestFit="true"/>
+    <col min="278" max="278" width="8.09375" customWidth="true" bestFit="true"/>
+    <col min="279" max="279" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="280" max="280" width="8.890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
